--- a/experiment/analysis1.xlsx
+++ b/experiment/analysis1.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,162 +400,162 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.00319693094629156</v>
+        <v>0.8492152466367713</v>
       </c>
       <c r="B2">
-        <v>1685095871.031187</v>
+        <v>1685009401.653</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0</v>
+        <v>0.9834641255605381</v>
       </c>
       <c r="B3">
-        <v>1685095872.040429</v>
+        <v>1685009402.655259</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0</v>
+        <v>0.0327914798206278</v>
       </c>
       <c r="B4">
-        <v>1685095873.044311</v>
+        <v>1685009403.659331</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.9811381074168798</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1685095874.056343</v>
+        <v>1685009404.674955</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.00639386189258312</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1685095875.057648</v>
+        <v>1685009405.679849</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.00319693094629156</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1685095876.071102</v>
+        <v>1685009406.684176</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0</v>
+        <v>0.9397421524663676</v>
       </c>
       <c r="B8">
-        <v>1685095877.085681</v>
+        <v>1685009407.690055</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0</v>
+        <v>0.0218609865470852</v>
       </c>
       <c r="B9">
-        <v>1685095878.08619</v>
+        <v>1685009408.702569</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.9875319693094629</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>1685095879.097867</v>
+        <v>1685009409.706917</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.00639386189258312</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1685095880.110288</v>
+        <v>1685009410.723002</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.00319693094629156</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>1685095881.118532</v>
+        <v>1685009411.736413</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0</v>
+        <v>0.9506726457399103</v>
       </c>
       <c r="B13">
-        <v>1685095882.13049</v>
+        <v>1685009412.752453</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0</v>
+        <v>0.01373318385650224</v>
       </c>
       <c r="B14">
-        <v>1685095883.138663</v>
+        <v>1685009413.761353</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.5875959079283887</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>1685095884.149489</v>
+        <v>1685009414.763305</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.00319693094629156</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>1685095885.150356</v>
+        <v>1685009415.777113</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.00319693094629156</v>
+        <v>0</v>
       </c>
       <c r="B17">
-        <v>1685095886.151106</v>
+        <v>1685009416.785899</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.00319693094629156</v>
+        <v>0.9697309417040357</v>
       </c>
       <c r="B18">
-        <v>1685095887.161985</v>
+        <v>1685009417.787333</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.1342710997442455</v>
+        <v>0.0109304932735426</v>
       </c>
       <c r="B19">
-        <v>1685095888.176401</v>
+        <v>1685009418.79821</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.1748721227621483</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>1685095889.184713</v>
+        <v>1685009419.806248</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.00639386189258312</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>1685095890.187954</v>
+        <v>1685009420.8119</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -563,159 +563,159 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>1685095891.190928</v>
+        <v>1685009421.825095</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0</v>
+        <v>0.9753363228699551</v>
       </c>
       <c r="B23">
-        <v>1685095892.201767</v>
+        <v>1685009422.828881</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.7749360613810742</v>
+        <v>0.008127802690582959</v>
       </c>
       <c r="B24">
-        <v>1685095893.216583</v>
+        <v>1685009423.832626</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.0936700767263427</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>1685095894.228657</v>
+        <v>1685009424.842565</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.00639386189258312</v>
+        <v>0</v>
       </c>
       <c r="B26">
-        <v>1685095895.241923</v>
+        <v>1685009425.856701</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.00319693094629156</v>
+        <v>0</v>
       </c>
       <c r="B27">
-        <v>1685095896.253671</v>
+        <v>1685009426.857044</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0</v>
+        <v>0.9781390134529148</v>
       </c>
       <c r="B28">
-        <v>1685095897.25487</v>
+        <v>1685009427.872298</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.8625319693094629</v>
+        <v>0.005605381165919282</v>
       </c>
       <c r="B29">
-        <v>1685095898.269506</v>
+        <v>1685009428.886497</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.04987212276214833</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>1685095899.276186</v>
+        <v>1685009429.891634</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.00319693094629156</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>1685095900.2887</v>
+        <v>1685009430.907242</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.00319693094629156</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>1685095901.291032</v>
+        <v>1685009431.921964</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0</v>
+        <v>0.9809417040358743</v>
       </c>
       <c r="B33">
-        <v>1685095902.302869</v>
+        <v>1685009432.926486</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.9156010230179027</v>
+        <v>0.005605381165919282</v>
       </c>
       <c r="B34">
-        <v>1685095903.305564</v>
+        <v>1685009433.930731</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.03740409207161125</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>1685095904.311049</v>
+        <v>1685009434.939265</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.00319693094629156</v>
+        <v>0</v>
       </c>
       <c r="B36">
-        <v>1685095905.326331</v>
+        <v>1685009435.954821</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.00319693094629156</v>
+        <v>0</v>
       </c>
       <c r="B37">
-        <v>1685095906.337566</v>
+        <v>1685009436.959521</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0</v>
+        <v>0.9862668161434978</v>
       </c>
       <c r="B38">
-        <v>1685095907.349774</v>
+        <v>1685009437.970078</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>0.9376598465473145</v>
+        <v>0.005605381165919282</v>
       </c>
       <c r="B39">
-        <v>1685095908.364678</v>
+        <v>1685009438.9845</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>0.02813299232736573</v>
+        <v>0</v>
       </c>
       <c r="B40">
-        <v>1685095909.365878</v>
+        <v>1685009440.001191</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>0.00319693094629156</v>
+        <v>0</v>
       </c>
       <c r="B41">
-        <v>1685095910.366674</v>
+        <v>1685009441.014922</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -723,39 +723,39 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>1685095911.374951</v>
+        <v>1685009442.020904</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>0</v>
+        <v>0.9890695067264573</v>
       </c>
       <c r="B43">
-        <v>1685095912.376645</v>
+        <v>1685009443.025738</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>0.9501278772378516</v>
+        <v>0.002802690582959641</v>
       </c>
       <c r="B44">
-        <v>1685095913.390077</v>
+        <v>1685009444.026901</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>0.0217391304347826</v>
+        <v>0</v>
       </c>
       <c r="B45">
-        <v>1685095914.401583</v>
+        <v>1685009445.041692</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>0.00319693094629156</v>
+        <v>0</v>
       </c>
       <c r="B46">
-        <v>1685095915.403104</v>
+        <v>1685009446.046768</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -763,39 +763,39 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>1685095916.404689</v>
+        <v>1685009447.061329</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>0.00319693094629156</v>
+        <v>0.9834641255605381</v>
       </c>
       <c r="B48">
-        <v>1685095917.415182</v>
+        <v>1685009448.073251</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>0.9625959079283886</v>
+        <v>0</v>
       </c>
       <c r="B49">
-        <v>1685095918.430845</v>
+        <v>1685009449.08325</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>0.0188618925831202</v>
+        <v>0</v>
       </c>
       <c r="B50">
-        <v>1685095919.432327</v>
+        <v>1685009450.098414</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>0.00319693094629156</v>
+        <v>0</v>
       </c>
       <c r="B51">
-        <v>1685095920.446194</v>
+        <v>1685009451.101478</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -803,39 +803,39 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>1685095921.460341</v>
+        <v>1685009452.113327</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>0</v>
+        <v>0.9890695067264573</v>
       </c>
       <c r="B53">
-        <v>1685095922.468548</v>
+        <v>1685009453.125158</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>0.9686700767263426</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>1685095923.482394</v>
+        <v>1685009454.130896</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>0.01566496163682864</v>
+        <v>0</v>
       </c>
       <c r="B55">
-        <v>1685095924.484332</v>
+        <v>1685009455.13868</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>0.00319693094629156</v>
+        <v>0</v>
       </c>
       <c r="B56">
-        <v>1685095925.49278</v>
+        <v>1685009456.142534</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -843,79 +843,2015 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>1685095926.504911</v>
+        <v>1685009457.157269</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>0</v>
+        <v>0.991872197309417</v>
       </c>
       <c r="B58">
-        <v>1685095927.508682</v>
+        <v>1685009458.167928</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>0.9686700767263426</v>
+        <v>0</v>
       </c>
       <c r="B59">
-        <v>1685095928.511566</v>
+        <v>1685009459.177593</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>0.9968030690537084</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>1685095929.519694</v>
+        <v>1685009460.17981</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>0.993925831202046</v>
+        <v>0</v>
       </c>
       <c r="B61">
-        <v>1685095930.532198</v>
+        <v>1685009461.189473</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>0.9968030690537084</v>
+        <v>0</v>
       </c>
       <c r="B62">
-        <v>1685095931.546945</v>
+        <v>1685009462.193074</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>1</v>
+        <v>0.9890695067264573</v>
       </c>
       <c r="B63">
-        <v>1685095932.548694</v>
+        <v>1685009463.204624</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>0.9968030690537084</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>1685095933.559502</v>
+        <v>1685009464.2124</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>0.9968030690537084</v>
+        <v>0</v>
       </c>
       <c r="B65">
-        <v>1685095934.568954</v>
+        <v>1685009465.227601</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>0.9968030690537084</v>
+        <v>0</v>
       </c>
       <c r="B66">
-        <v>1685095935.584073</v>
+        <v>1685009466.233807</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>1685009467.239387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>0.9943946188340808</v>
+      </c>
+      <c r="B68">
+        <v>1685009468.244953</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>1685009469.25027</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>1685009470.264695</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>1685009471.267813</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>1685009472.278351</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>0.9943946188340808</v>
+      </c>
+      <c r="B73">
+        <v>1685009473.28646</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>1685009474.298914</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>1685009475.30001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>1685009476.306313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>1685009477.31968</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>0.9971973094170403</v>
+      </c>
+      <c r="B78">
+        <v>1685009478.328993</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>1685009479.344357</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>1685009480.353396</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>1685009481.366537</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>1685009482.371156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>1685009483.386103</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>1685009484.400434</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>1685009485.413477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>1685009486.427816</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>1685009487.442562</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>0.9971973094170403</v>
+      </c>
+      <c r="B88">
+        <v>1685009488.457522</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>1685009489.458224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>1685009490.473715</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>1685009491.47504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>1685009492.486454</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>1685009493.489286</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>1685009494.490603</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>1685009495.503465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>1685009496.51518</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>0.1451793721973094</v>
+      </c>
+      <c r="B97">
+        <v>1685009497.515546</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>0.9943946188340808</v>
+      </c>
+      <c r="B98">
+        <v>1685009498.525693</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>1685009499.538876</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>1685009500.552427</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>1685009501.565127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>0.852017937219731</v>
+      </c>
+      <c r="B102">
+        <v>1685009502.576483</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>0.06586322869955157</v>
+      </c>
+      <c r="B103">
+        <v>1685009503.591446</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>1685009504.613304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>1685009505.622393</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>1685009506.638424</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>0.9069506726457399</v>
+      </c>
+      <c r="B107">
+        <v>1685009507.63967</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>0.03559417040358744</v>
+      </c>
+      <c r="B108">
+        <v>1685009508.651464</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>1685009509.657441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>1685009510.6666</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>1685009511.668478</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>0.9588004484304933</v>
+      </c>
+      <c r="B112">
+        <v>1685009512.684439</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>0.0218609865470852</v>
+      </c>
+      <c r="B113">
+        <v>1685009513.699152</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>1685009514.699549</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>1685009515.715334</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>1685009516.721993</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>0.9644058295964126</v>
+      </c>
+      <c r="B117">
+        <v>1685009517.731827</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>0.01653587443946188</v>
+      </c>
+      <c r="B118">
+        <v>1685009518.741388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>1685009519.75566</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>1685009520.765337</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>1685009521.766031</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>0.9672085201793722</v>
+      </c>
+      <c r="B122">
+        <v>1685009522.772136</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>0.01373318385650224</v>
+      </c>
+      <c r="B123">
+        <v>1685009523.779688</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>1685009524.794014</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>1685009525.79543</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>1685009526.808873</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>0.9781390134529148</v>
+      </c>
+      <c r="B127">
+        <v>1685009527.817757</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>0.0109304932735426</v>
+      </c>
+      <c r="B128">
+        <v>1685009528.818718</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>1685009529.821873</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>1685009530.823003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>1685009531.833365</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>0.9809417040358743</v>
+      </c>
+      <c r="B132">
+        <v>1685009532.839796</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>0.008127802690582959</v>
+      </c>
+      <c r="B133">
+        <v>1685009533.840795</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>1685009534.845174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>1685009535.847959</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>1685009536.861176</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>0.9781390134529148</v>
+      </c>
+      <c r="B137">
+        <v>1685009537.865863</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>0.005605381165919282</v>
+      </c>
+      <c r="B138">
+        <v>1685009538.880166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>1685009539.889872</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>1685009540.905271</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>1685009541.918841</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>0.9890695067264573</v>
+      </c>
+      <c r="B142">
+        <v>1685009542.926154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>0.002802690582959641</v>
+      </c>
+      <c r="B143">
+        <v>1685009543.939116</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>1685009544.947018</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>1685009545.963073</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>1685009546.975963</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>0.991872197309417</v>
+      </c>
+      <c r="B147">
+        <v>1685009547.989841</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>0.002802690582959641</v>
+      </c>
+      <c r="B148">
+        <v>1685009549.001556</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>1685009550.017509</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>1685009551.030319</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>1685009552.043572</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>0.9943946188340808</v>
+      </c>
+      <c r="B152">
+        <v>1685009553.051957</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>1685009554.055224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>1685009555.06717</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>1685009556.081683</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>1685009557.095354</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>0.9890695067264573</v>
+      </c>
+      <c r="B157">
+        <v>1685009558.107892</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>1685009559.11521</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>1685009560.124347</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>1685009561.133334</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>1685009562.14729</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>0.9890695067264573</v>
+      </c>
+      <c r="B162">
+        <v>1685009563.148281</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>1685009564.158679</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>1685009565.171958</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>1685009566.174724</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>1685009567.189691</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>0.9971973094170403</v>
+      </c>
+      <c r="B167">
+        <v>1685009568.199649</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>1685009569.20909</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>1685009570.224973</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>1685009571.237578</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>1685009572.251146</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>0.9943946188340808</v>
+      </c>
+      <c r="B172">
+        <v>1685009573.259575</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>1685009574.268426</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>1685009575.277285</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>1685009576.280419</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>1685009577.294621</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>0.9890695067264573</v>
+      </c>
+      <c r="B177">
+        <v>1685009578.305799</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>1685009579.312768</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>1685009580.319899</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>1685009581.332941</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>1685009582.347813</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>0.991872197309417</v>
+      </c>
+      <c r="B182">
+        <v>1685009583.361148</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>1685009584.364889</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>1685009585.374327</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>1685009586.381784</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>0</v>
+      </c>
+      <c r="B186">
+        <v>1685009587.394741</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>1</v>
+      </c>
+      <c r="B187">
+        <v>1685009588.404284</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>1685009589.417785</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>1685009590.429151</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>1685009591.440424</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>1685009592.449787</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>0.991872197309417</v>
+      </c>
+      <c r="B192">
+        <v>1685009593.458399</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>1685009594.462815</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>1685009595.464899</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>1685009596.476521</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>1685009597.488332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197">
+        <v>0.9971973094170403</v>
+      </c>
+      <c r="B197">
+        <v>1685009598.502574</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>1685009599.503439</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>1685009600.514435</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>1685009601.521637</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>0.5560538116591928</v>
+      </c>
+      <c r="B201">
+        <v>1685009602.535386</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>0.1451793721973094</v>
+      </c>
+      <c r="B202">
+        <v>1685009603.541024</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>1685009604.556737</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>1685009605.5728</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>1685009606.583974</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>0.8932174887892376</v>
+      </c>
+      <c r="B206">
+        <v>1685009607.588646</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>0.06306053811659193</v>
+      </c>
+      <c r="B207">
+        <v>1685009608.598708</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>1685009609.600286</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>1685009610.606994</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>1685009611.620739</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>0.9204035874439462</v>
+      </c>
+      <c r="B211">
+        <v>1685009612.635826</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>0.0437219730941704</v>
+      </c>
+      <c r="B212">
+        <v>1685009613.64695</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>1685009614.661377</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>1685009615.673452</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>1685009616.685623</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>0.95347533632287</v>
+      </c>
+      <c r="B216">
+        <v>1685009617.699733</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>0.0218609865470852</v>
+      </c>
+      <c r="B217">
+        <v>1685009618.701242</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>1685009619.712523</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>1685009620.722583</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>1685009621.732769</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>0.9644058295964126</v>
+      </c>
+      <c r="B221">
+        <v>1685009622.746603</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>0.01653587443946188</v>
+      </c>
+      <c r="B222">
+        <v>1685009623.747646</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>1685009624.754559</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>0</v>
+      </c>
+      <c r="B224">
+        <v>1685009625.758914</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>0</v>
+      </c>
+      <c r="B225">
+        <v>1685009626.766325</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>0.9725336322869954</v>
+      </c>
+      <c r="B226">
+        <v>1685009627.76948</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>0.0109304932735426</v>
+      </c>
+      <c r="B227">
+        <v>1685009628.784536</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>0</v>
+      </c>
+      <c r="B228">
+        <v>1685009629.78792</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>0</v>
+      </c>
+      <c r="B229">
+        <v>1685009630.800952</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>0</v>
+      </c>
+      <c r="B230">
+        <v>1685009631.815277</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>0.9809417040358743</v>
+      </c>
+      <c r="B231">
+        <v>1685009632.838763</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>0.008127802690582959</v>
+      </c>
+      <c r="B232">
+        <v>1685009633.848785</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>0</v>
+      </c>
+      <c r="B233">
+        <v>1685009634.854534</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>0</v>
+      </c>
+      <c r="B234">
+        <v>1685009635.867894</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>0</v>
+      </c>
+      <c r="B235">
+        <v>1685009636.883904</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>0.9834641255605381</v>
+      </c>
+      <c r="B236">
+        <v>1685009637.885449</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>0.005605381165919282</v>
+      </c>
+      <c r="B237">
+        <v>1685009638.899881</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>0</v>
+      </c>
+      <c r="B238">
+        <v>1685009639.914756</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>0</v>
+      </c>
+      <c r="B239">
+        <v>1685009640.916228</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>0</v>
+      </c>
+      <c r="B240">
+        <v>1685009641.929372</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>0.9862668161434978</v>
+      </c>
+      <c r="B241">
+        <v>1685009642.93123</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>0.005605381165919282</v>
+      </c>
+      <c r="B242">
+        <v>1685009643.942219</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>0</v>
+      </c>
+      <c r="B243">
+        <v>1685009644.947962</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>1685009645.961134</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>0</v>
+      </c>
+      <c r="B245">
+        <v>1685009646.970168</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>0.9862668161434978</v>
+      </c>
+      <c r="B246">
+        <v>1685009647.971023</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>0.002802690582959641</v>
+      </c>
+      <c r="B247">
+        <v>1685009648.979996</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>0</v>
+      </c>
+      <c r="B248">
+        <v>1685009649.995489</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>0</v>
+      </c>
+      <c r="B249">
+        <v>1685009651.010778</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>0</v>
+      </c>
+      <c r="B250">
+        <v>1685009652.022294</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>0.9862668161434978</v>
+      </c>
+      <c r="B251">
+        <v>1685009653.028491</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>0</v>
+      </c>
+      <c r="B252">
+        <v>1685009654.040914</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>1685009655.04172</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>0</v>
+      </c>
+      <c r="B254">
+        <v>1685009656.05183</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>1685009657.053154</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>0.9862668161434978</v>
+      </c>
+      <c r="B256">
+        <v>1685009658.067169</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>0</v>
+      </c>
+      <c r="B257">
+        <v>1685009659.077302</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>1685009660.089511</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>0</v>
+      </c>
+      <c r="B259">
+        <v>1685009661.094402</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>0</v>
+      </c>
+      <c r="B260">
+        <v>1685009662.095168</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>0.9943946188340808</v>
+      </c>
+      <c r="B261">
+        <v>1685009663.09847</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>1685009664.114474</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>0</v>
+      </c>
+      <c r="B263">
+        <v>1685009665.12447</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264">
+        <v>1685009666.131326</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>0</v>
+      </c>
+      <c r="B265">
+        <v>1685009667.132322</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>0.9862668161434978</v>
+      </c>
+      <c r="B266">
+        <v>1685009668.144071</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>0</v>
+      </c>
+      <c r="B267">
+        <v>1685009669.145712</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>0</v>
+      </c>
+      <c r="B268">
+        <v>1685009670.148132</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>1685009671.160765</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>0</v>
+      </c>
+      <c r="B270">
+        <v>1685009672.171051</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>0.9971973094170403</v>
+      </c>
+      <c r="B271">
+        <v>1685009673.178084</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>0</v>
+      </c>
+      <c r="B272">
+        <v>1685009674.190347</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273">
+        <v>0</v>
+      </c>
+      <c r="B273">
+        <v>1685009675.206299</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274">
+        <v>0</v>
+      </c>
+      <c r="B274">
+        <v>1685009676.220616</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275">
+        <v>0</v>
+      </c>
+      <c r="B275">
+        <v>1685009677.232663</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>0.9943946188340808</v>
+      </c>
+      <c r="B276">
+        <v>1685009678.236591</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277">
+        <v>0</v>
+      </c>
+      <c r="B277">
+        <v>1685009679.250992</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>1685009680.265665</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>1685009681.278379</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <v>0</v>
+      </c>
+      <c r="B280">
+        <v>1685009682.289129</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281">
+        <v>0.9943946188340808</v>
+      </c>
+      <c r="B281">
+        <v>1685009683.289925</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>1685009684.304804</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283">
+        <v>0</v>
+      </c>
+      <c r="B283">
+        <v>1685009685.318714</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284">
+        <v>0</v>
+      </c>
+      <c r="B284">
+        <v>1685009686.334101</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285">
+        <v>0</v>
+      </c>
+      <c r="B285">
+        <v>1685009687.349713</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286">
+        <v>0.9943946188340808</v>
+      </c>
+      <c r="B286">
+        <v>1685009688.364773</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287">
+        <v>0</v>
+      </c>
+      <c r="B287">
+        <v>1685009689.367035</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288">
+        <v>0</v>
+      </c>
+      <c r="B288">
+        <v>1685009690.368797</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>1685009691.370798</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290">
+        <v>0</v>
+      </c>
+      <c r="B290">
+        <v>1685009692.383984</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291">
+        <v>1685009693.390695</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292">
+        <v>0</v>
+      </c>
+      <c r="B292">
+        <v>1685009694.403359</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293">
+        <v>0</v>
+      </c>
+      <c r="B293">
+        <v>1685009695.419405</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294">
+        <v>0</v>
+      </c>
+      <c r="B294">
+        <v>1685009696.433381</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295">
+        <v>0</v>
+      </c>
+      <c r="B295">
+        <v>1685009697.435445</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296">
+        <v>0.9943946188340808</v>
+      </c>
+      <c r="B296">
+        <v>1685009698.449299</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297">
+        <v>0</v>
+      </c>
+      <c r="B297">
+        <v>1685009699.456941</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>1685009700.458346</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>1685009701.473492</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300">
+        <v>0</v>
+      </c>
+      <c r="B300">
+        <v>1685009702.485348</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301">
+        <v>0.9943946188340808</v>
+      </c>
+      <c r="B301">
+        <v>1685009703.4976</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302">
+        <v>0.8629484304932735</v>
+      </c>
+      <c r="B302">
+        <v>1685009704.498363</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303">
+        <v>0.8629484304932735</v>
+      </c>
+      <c r="B303">
+        <v>1685009705.506773</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304">
+        <v>0.8657511210762332</v>
+      </c>
+      <c r="B304">
+        <v>1685009706.520628</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305">
+        <v>0.8576233183856502</v>
+      </c>
+      <c r="B305">
+        <v>1685009707.529544</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306">
+        <v>0.860145739910314</v>
+      </c>
+      <c r="B306">
+        <v>1685009708.543598</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307">
+        <v>0.8629484304932735</v>
+      </c>
+      <c r="B307">
+        <v>1685009709.549855</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308">
+        <v>0.8576233183856502</v>
+      </c>
+      <c r="B308">
+        <v>1685009710.554741</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +2861,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B172"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -941,346 +2877,1370 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.6105550937572432</v>
+        <v>0.3007537744993469</v>
       </c>
       <c r="B2">
-        <v>1685095873.679208</v>
+        <v>1685009403.10062</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.3275459514288669</v>
+        <v>0.5784352613424408</v>
       </c>
       <c r="B3">
-        <v>1685095874.82646</v>
+        <v>1685009404.209735</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.05165022286975569</v>
+        <v>0.1334753838710963</v>
       </c>
       <c r="B4">
-        <v>1685095875.966339</v>
+        <v>1685009405.313154</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.01214177344330799</v>
+        <v>0.8845042854742461</v>
       </c>
       <c r="B5">
-        <v>1685095877.123139</v>
+        <v>1685009408.609984</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.7244667701061077</v>
+        <v>0.2460482569309392</v>
       </c>
       <c r="B6">
-        <v>1685095879.410354</v>
+        <v>1685009409.733384</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.1117325612031101</v>
+        <v>0.08318434642573877</v>
       </c>
       <c r="B7">
-        <v>1685095880.558299</v>
+        <v>1685009410.864971</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.0195205431179762</v>
+        <v>0.4597300050370548</v>
       </c>
       <c r="B8">
-        <v>1685095881.698812</v>
+        <v>1685009413.129764</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.8772758579871076</v>
+        <v>0.4981682558568791</v>
       </c>
       <c r="B9">
-        <v>1685095883.983523</v>
+        <v>1685009414.249883</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.1900028608620924</v>
+        <v>0.1126209421169376</v>
       </c>
       <c r="B10">
-        <v>1685095885.123342</v>
+        <v>1685009415.373795</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.03122833823855345</v>
+        <v>0.9998914100025164</v>
       </c>
       <c r="B11">
-        <v>1685095886.262805</v>
+        <v>1685009418.758088</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.4445552256371188</v>
+        <v>0.1803335621617539</v>
       </c>
       <c r="B12">
-        <v>1685095888.543998</v>
+        <v>1685009419.881347</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.4274270547022074</v>
+        <v>0.06518294390934801</v>
       </c>
       <c r="B13">
-        <v>1685095889.683074</v>
+        <v>1685009421.001729</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.06646472623168181</v>
+        <v>0.6814596806057521</v>
       </c>
       <c r="B14">
-        <v>1685095890.823606</v>
+        <v>1685009423.269776</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.01194018371437492</v>
+        <v>0.3385350046802175</v>
       </c>
       <c r="B15">
-        <v>1685095891.963269</v>
+        <v>1685009424.39754</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>1</v>
+        <v>0.07939395848727984</v>
       </c>
       <c r="B16">
-        <v>1685095894.238613</v>
+        <v>1685009425.521713</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.1526650101983097</v>
+        <v>0.8380656829282239</v>
       </c>
       <c r="B17">
-        <v>1685095895.37851</v>
+        <v>1685009428.897547</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0.02558684152829587</v>
+        <v>0.1541664202792377</v>
       </c>
       <c r="B18">
-        <v>1685095896.526551</v>
+        <v>1685009430.021757</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.7522426230905788</v>
+        <v>0.7997214344949735</v>
       </c>
       <c r="B19">
-        <v>1685095898.810335</v>
+        <v>1685009433.409661</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.2562295168598812</v>
+        <v>0.2771055969885672</v>
       </c>
       <c r="B20">
-        <v>1685095899.950564</v>
+        <v>1685009434.533299</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.04062084725138855</v>
+        <v>0.07433076567977255</v>
       </c>
       <c r="B21">
-        <v>1685095901.086262</v>
+        <v>1685009435.657326</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.01206824027646643</v>
+        <v>0.1951568061956468</v>
       </c>
       <c r="B22">
-        <v>1685095902.22603</v>
+        <v>1685009437.897929</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.1383646509178491</v>
+        <v>0.6577723064707132</v>
       </c>
       <c r="B23">
-        <v>1685095903.36278</v>
+        <v>1685009439.02595</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.5912540786406324</v>
+        <v>0.1379572839519002</v>
       </c>
       <c r="B24">
-        <v>1685095904.503253</v>
+        <v>1685009440.148957</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.0913572113358153</v>
+        <v>0.8781827980381158</v>
       </c>
       <c r="B25">
-        <v>1685095905.646858</v>
+        <v>1685009443.534209</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.01552193290193723</v>
+        <v>0.2329186389601625</v>
       </c>
       <c r="B26">
-        <v>1685095906.785706</v>
+        <v>1685009444.657723</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.9280549822949367</v>
+        <v>0.07481200938780053</v>
       </c>
       <c r="B27">
-        <v>1685095909.071039</v>
+        <v>1685009445.782211</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.1565459516913094</v>
+        <v>0.3587841206117539</v>
       </c>
       <c r="B28">
-        <v>1685095910.206526</v>
+        <v>1685009448.030034</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.02541121948661982</v>
+        <v>0.5085516349293443</v>
       </c>
       <c r="B29">
-        <v>1685095911.345592</v>
+        <v>1685009449.154007</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.5471629018269686</v>
+        <v>0.119035199258488</v>
       </c>
       <c r="B30">
-        <v>1685095913.613475</v>
+        <v>1685009450.278204</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.3692104006547572</v>
+        <v>0.9554810109233278</v>
       </c>
       <c r="B31">
-        <v>1685095914.750509</v>
+        <v>1685009453.666196</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.05798837055556446</v>
+        <v>0.1867841838646262</v>
       </c>
       <c r="B32">
-        <v>1685095915.890339</v>
+        <v>1685009454.789748</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.01074016331675145</v>
+        <v>0.1420457421205403</v>
       </c>
       <c r="B33">
-        <v>1685095917.04706</v>
+        <v>1685009455.91766</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.8807495907722445</v>
+        <v>0.06915108064701331</v>
       </c>
       <c r="B34">
-        <v>1685095919.322581</v>
+        <v>1685009457.045507</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.1346071730771145</v>
+        <v>0.5762022040008501</v>
       </c>
       <c r="B35">
-        <v>1685095920.45835</v>
+        <v>1685009458.170008</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.02237034895029739</v>
+        <v>0.3957228445538564</v>
       </c>
       <c r="B36">
-        <v>1685095921.598094</v>
+        <v>1685009459.293418</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.8325607735689357</v>
+        <v>0.1024601609402709</v>
       </c>
       <c r="B37">
-        <v>1685095923.894276</v>
+        <v>1685009460.421584</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0.218897455914583</v>
+        <v>0.9935419352565026</v>
       </c>
       <c r="B38">
-        <v>1685095925.030354</v>
+        <v>1685009463.805359</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>0.03476805810164731</v>
+        <v>0.179675584605817</v>
       </c>
       <c r="B39">
-        <v>1685095926.170354</v>
+        <v>1685009464.925561</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>0.007306299080529259</v>
+        <v>0.0688193044002932</v>
       </c>
       <c r="B40">
-        <v>1685095927.310535</v>
+        <v>1685009466.054269</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>0.3023058414696123</v>
+        <v>0.7101240462935405</v>
       </c>
       <c r="B41">
-        <v>1685095928.446355</v>
+        <v>1685009468.289913</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>0.493913048826757</v>
+        <v>0.3197398886057118</v>
       </c>
       <c r="B42">
-        <v>1685095929.58653</v>
+        <v>1685009469.417723</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>0.07606755212502242</v>
+        <v>0.07857407291170498</v>
       </c>
       <c r="B43">
-        <v>1685095930.717637</v>
+        <v>1685009470.553468</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>0.0130893942226188</v>
+        <v>0.7745668398677619</v>
       </c>
       <c r="B44">
-        <v>1685095931.87413</v>
+        <v>1685009473.92488</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>0.1423398138542489</v>
+      </c>
+      <c r="B45">
+        <v>1685009475.057652</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>0.8347539753112228</v>
+      </c>
+      <c r="B46">
+        <v>1685009478.437087</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>0.2493568391362759</v>
+      </c>
+      <c r="B47">
+        <v>1685009479.56558</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>0.2575405549002472</v>
+      </c>
+      <c r="B48">
+        <v>1685009482.937875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>0.6048773629528892</v>
+      </c>
+      <c r="B49">
+        <v>1685009484.061446</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>0.1244986779727695</v>
+      </c>
+      <c r="B50">
+        <v>1685009485.201811</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>0.06545930409270713</v>
+      </c>
+      <c r="B51">
+        <v>1685009486.326169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>0.9045275176714258</v>
+      </c>
+      <c r="B52">
+        <v>1685009488.566345</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>0.2158014309078774</v>
+      </c>
+      <c r="B53">
+        <v>1685009489.693861</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>0.4417270152483325</v>
+      </c>
+      <c r="B54">
+        <v>1685009493.073464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>0.4791757566701267</v>
+      </c>
+      <c r="B55">
+        <v>1685009494.193625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>0.1150862579635761</v>
+      </c>
+      <c r="B56">
+        <v>1685009495.321605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>0.9697567008483228</v>
+      </c>
+      <c r="B57">
+        <v>1685009498.718323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>0.1880639096923245</v>
+      </c>
+      <c r="B58">
+        <v>1685009499.857624</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>0.0711121940506681</v>
+      </c>
+      <c r="B59">
+        <v>1685009500.98488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>0.6542701353188334</v>
+      </c>
+      <c r="B60">
+        <v>1685009503.241517</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>0.3511891878715194</v>
+      </c>
+      <c r="B61">
+        <v>1685009504.362222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>0.09080161221051108</v>
+      </c>
+      <c r="B62">
+        <v>1685009505.485179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>0.8759740847402349</v>
+      </c>
+      <c r="B63">
+        <v>1685009508.865782</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>0.1561556954359399</v>
+      </c>
+      <c r="B64">
+        <v>1685009509.997532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>0.7759113079391862</v>
+      </c>
+      <c r="B65">
+        <v>1685009513.362241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>0.2883813861333904</v>
+      </c>
+      <c r="B66">
+        <v>1685009514.490196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>0.06909650238518124</v>
+      </c>
+      <c r="B67">
+        <v>1685009515.618419</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>0.1737137640237348</v>
+      </c>
+      <c r="B68">
+        <v>1685009517.877251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>0.657750139854418</v>
+      </c>
+      <c r="B69">
+        <v>1685009519.01342</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>0.1339682389209879</v>
+      </c>
+      <c r="B70">
+        <v>1685009520.137432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>0.8740115644600523</v>
+      </c>
+      <c r="B71">
+        <v>1685009523.521594</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>0.2356946975918626</v>
+      </c>
+      <c r="B72">
+        <v>1685009524.6415</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>0.07119823896026746</v>
+      </c>
+      <c r="B73">
+        <v>1685009525.769609</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>0.3854000563716036</v>
+      </c>
+      <c r="B74">
+        <v>1685009528.037228</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>0.4865995538825904</v>
+      </c>
+      <c r="B75">
+        <v>1685009529.170151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>0.1169530711061242</v>
+      </c>
+      <c r="B76">
+        <v>1685009530.286171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>0.9512367627635573</v>
+      </c>
+      <c r="B77">
+        <v>1685009533.660955</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>0.1840495821688011</v>
+      </c>
+      <c r="B78">
+        <v>1685009534.789599</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>0.07093038436285524</v>
+      </c>
+      <c r="B79">
+        <v>1685009535.918118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>0.6009406842347367</v>
+      </c>
+      <c r="B80">
+        <v>1685009538.185625</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>0.3708193546889569</v>
+      </c>
+      <c r="B81">
+        <v>1685009539.321016</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>0.08937768976235465</v>
+      </c>
+      <c r="B82">
+        <v>1685009540.445623</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>0.9432696966362744</v>
+      </c>
+      <c r="B83">
+        <v>1685009543.829338</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>0.1673286188710237</v>
+      </c>
+      <c r="B84">
+        <v>1685009544.953379</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>0.7444979868314199</v>
+      </c>
+      <c r="B85">
+        <v>1685009548.3218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>0.3063847201600827</v>
+      </c>
+      <c r="B86">
+        <v>1685009549.453593</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>0.07486048467892548</v>
+      </c>
+      <c r="B87">
+        <v>1685009550.573325</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>0.7251420368217383</v>
+      </c>
+      <c r="B88">
+        <v>1685009553.953285</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>0.1527214789058904</v>
+      </c>
+      <c r="B89">
+        <v>1685009555.074281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>0.8319481674198559</v>
+      </c>
+      <c r="B90">
+        <v>1685009558.453798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>0.252330739530208</v>
+      </c>
+      <c r="B91">
+        <v>1685009559.572578</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>0.0790760661044248</v>
+      </c>
+      <c r="B92">
+        <v>1685009560.720965</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>0.2998779455847174</v>
+      </c>
+      <c r="B93">
+        <v>1685009562.969278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>0.562410776664963</v>
+      </c>
+      <c r="B94">
+        <v>1685009564.093378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>0.1116003868502757</v>
+      </c>
+      <c r="B95">
+        <v>1685009565.216679</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>0.9205323899392951</v>
+      </c>
+      <c r="B96">
+        <v>1685009568.589366</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>0.208456750340437</v>
+      </c>
+      <c r="B97">
+        <v>1685009569.717371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>0.0684281094140201</v>
+      </c>
+      <c r="B98">
+        <v>1685009570.841576</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>0.4576010668605791</v>
+      </c>
+      <c r="B99">
+        <v>1685009573.085532</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>0.4612978477893034</v>
+      </c>
+      <c r="B100">
+        <v>1685009574.209525</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>0.1113908384817373</v>
+      </c>
+      <c r="B101">
+        <v>1685009575.333104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>0.9804795429337537</v>
+      </c>
+      <c r="B102">
+        <v>1685009578.721555</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>0.1760387481730464</v>
+      </c>
+      <c r="B103">
+        <v>1685009579.849524</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>0.6500066991234172</v>
+      </c>
+      <c r="B104">
+        <v>1685009583.226094</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>0.3637175966069689</v>
+      </c>
+      <c r="B105">
+        <v>1685009584.349729</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>0.08097160777320143</v>
+      </c>
+      <c r="B106">
+        <v>1685009585.469341</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>0.8794177507959918</v>
+      </c>
+      <c r="B107">
+        <v>1685009588.861517</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>0.1745008107922573</v>
+      </c>
+      <c r="B108">
+        <v>1685009589.989339</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>0.7579366288151659</v>
+      </c>
+      <c r="B109">
+        <v>1685009593.361964</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>0.2882715964068626</v>
+      </c>
+      <c r="B110">
+        <v>1685009594.489498</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>0.08676005440934891</v>
+      </c>
+      <c r="B111">
+        <v>1685009595.617508</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>0.1636083219500882</v>
+      </c>
+      <c r="B112">
+        <v>1685009597.873573</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>0.6730178322481922</v>
+      </c>
+      <c r="B113">
+        <v>1685009598.997367</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>0.1316634754210542</v>
+      </c>
+      <c r="B114">
+        <v>1685009600.117502</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>0.8844431843564561</v>
+      </c>
+      <c r="B115">
+        <v>1685009603.517693</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>0.2224891934457278</v>
+      </c>
+      <c r="B116">
+        <v>1685009604.645636</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>0.3646303686405153</v>
+      </c>
+      <c r="B117">
+        <v>1685009608.021566</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>0.5106494856197759</v>
+      </c>
+      <c r="B118">
+        <v>1685009609.149323</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>0.1200339248460108</v>
+      </c>
+      <c r="B119">
+        <v>1685009610.277356</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>0.946227745843062</v>
+      </c>
+      <c r="B120">
+        <v>1685009613.66186</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>0.1788190761696681</v>
+      </c>
+      <c r="B121">
+        <v>1685009614.789706</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>0.06623809585986196</v>
+      </c>
+      <c r="B122">
+        <v>1685009615.917303</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>0.5730009183519066</v>
+      </c>
+      <c r="B123">
+        <v>1685009618.166213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>0.3986656699897914</v>
+      </c>
+      <c r="B124">
+        <v>1685009619.288718</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>0.08862044835995617</v>
+      </c>
+      <c r="B125">
+        <v>1685009620.418012</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>1</v>
+      </c>
+      <c r="B126">
+        <v>1685009623.789419</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>0.1968231053512786</v>
+      </c>
+      <c r="B127">
+        <v>1685009624.921187</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>0.07213644149133329</v>
+      </c>
+      <c r="B128">
+        <v>1685009626.058645</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>0.7219689660525324</v>
+      </c>
+      <c r="B129">
+        <v>1685009628.309393</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>0.3095367690514452</v>
+      </c>
+      <c r="B130">
+        <v>1685009629.433298</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>0.07990437994049553</v>
+      </c>
+      <c r="B131">
+        <v>1685009630.55746</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>0.7502506009572524</v>
+      </c>
+      <c r="B132">
+        <v>1685009633.941207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>0.1484489136809658</v>
+      </c>
+      <c r="B133">
+        <v>1685009635.065547</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>0.816649059105213</v>
+      </c>
+      <c r="B134">
+        <v>1685009638.425583</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>0.2672812696753848</v>
+      </c>
+      <c r="B135">
+        <v>1685009639.545964</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>0.08369715868103701</v>
+      </c>
+      <c r="B136">
+        <v>1685009640.672742</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>0.2453992772241164</v>
+      </c>
+      <c r="B137">
+        <v>1685009642.925434</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>0.6092292677434171</v>
+      </c>
+      <c r="B138">
+        <v>1685009644.049695</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>0.1169024874716127</v>
+      </c>
+      <c r="B139">
+        <v>1685009645.173071</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>0.906345421157302</v>
+      </c>
+      <c r="B140">
+        <v>1685009648.569502</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>0.2162992747020197</v>
+      </c>
+      <c r="B141">
+        <v>1685009649.693437</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>0.06841421799141055</v>
+      </c>
+      <c r="B142">
+        <v>1685009650.813445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>0.42664806154485</v>
+      </c>
+      <c r="B143">
+        <v>1685009653.061589</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>0.4784187278518663</v>
+      </c>
+      <c r="B144">
+        <v>1685009654.185693</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>0.113501431460586</v>
+      </c>
+      <c r="B145">
+        <v>1685009655.324543</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>0.9706235139005762</v>
+      </c>
+      <c r="B146">
+        <v>1685009658.701247</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>0.1767698201075483</v>
+      </c>
+      <c r="B147">
+        <v>1685009659.821455</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>0.604933651849094</v>
+      </c>
+      <c r="B148">
+        <v>1685009663.197224</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>0.3860106785735399</v>
+      </c>
+      <c r="B149">
+        <v>1685009664.317896</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>0.09999640830482241</v>
+      </c>
+      <c r="B150">
+        <v>1685009665.441299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>0.9650298271625312</v>
+      </c>
+      <c r="B151">
+        <v>1685009668.816927</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>0.1765123252974014</v>
+      </c>
+      <c r="B152">
+        <v>1685009669.941886</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>0.06546716989468193</v>
+      </c>
+      <c r="B153">
+        <v>1685009671.061935</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>0.7341557350860668</v>
+      </c>
+      <c r="B154">
+        <v>1685009673.309414</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>0.3124209223780829</v>
+      </c>
+      <c r="B155">
+        <v>1685009674.437236</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>0.07319962234362247</v>
+      </c>
+      <c r="B156">
+        <v>1685009675.561289</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>0.7440126024939031</v>
+      </c>
+      <c r="B157">
+        <v>1685009678.936997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>0.1552702223344044</v>
+      </c>
+      <c r="B158">
+        <v>1685009680.069782</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>0.8362179327654028</v>
+      </c>
+      <c r="B159">
+        <v>1685009683.445275</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>0.2450877055157442</v>
+      </c>
+      <c r="B160">
+        <v>1685009684.577231</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>0.07384751657085999</v>
+      </c>
+      <c r="B161">
+        <v>1685009685.697923</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>0.2725586564430741</v>
+      </c>
+      <c r="B162">
+        <v>1685009687.949521</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>0.572791039374311</v>
+      </c>
+      <c r="B163">
+        <v>1685009689.085393</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>0.1147552381095038</v>
+      </c>
+      <c r="B164">
+        <v>1685009690.213439</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>0.9169025342797974</v>
+      </c>
+      <c r="B165">
+        <v>1685009693.585846</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>0.2082132064282847</v>
+      </c>
+      <c r="B166">
+        <v>1685009694.725709</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>0.07402444825246947</v>
+      </c>
+      <c r="B167">
+        <v>1685009695.84971</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>0.479547396845219</v>
+      </c>
+      <c r="B168">
+        <v>1685009698.097582</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>0.4431976711910504</v>
+      </c>
+      <c r="B169">
+        <v>1685009699.22148</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>0.1004655899632591</v>
+      </c>
+      <c r="B170">
+        <v>1685009700.352509</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>0.9850515217547332</v>
+      </c>
+      <c r="B171">
+        <v>1685009703.750092</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>0.1858448654547371</v>
+      </c>
+      <c r="B172">
+        <v>1685009704.873889</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/analysis1.xlsx
+++ b/experiment/analysis1.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,122 +400,122 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.003186743148502231</v>
+        <v>0.3199290360733294</v>
       </c>
       <c r="B2">
-        <v>1685096011.124759</v>
+        <v>1685439548.139367</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.003186743148502231</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="B3">
-        <v>1685096012.130289</v>
+        <v>1685439549.151246</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.003186743148502231</v>
+        <v>0.03469347526118668</v>
       </c>
       <c r="B4">
-        <v>1685096013.139503</v>
+        <v>1685439550.163077</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.984384958572339</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>1685096014.151468</v>
+        <v>1685439551.17651</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.006373486297004461</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1685096015.153644</v>
+        <v>1685439552.178324</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.003186743148502231</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1685096016.156792</v>
+        <v>1685439553.188387</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0</v>
+        <v>0.4624482554701361</v>
       </c>
       <c r="B8">
-        <v>1685096017.166579</v>
+        <v>1685439554.203096</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0</v>
+        <v>0.02503449635324266</v>
       </c>
       <c r="B9">
-        <v>1685096018.177336</v>
+        <v>1685439555.218269</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.9936265137029955</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>1685096019.178459</v>
+        <v>1685439556.233784</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.006373486297004461</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>1685096020.190422</v>
+        <v>1685439557.247203</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.003186743148502231</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>1685096021.197646</v>
+        <v>1685439558.258137</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0</v>
+        <v>0.4971417307313227</v>
       </c>
       <c r="B13">
-        <v>1685096022.20327</v>
+        <v>1685439559.273974</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0</v>
+        <v>0.009658978907944017</v>
       </c>
       <c r="B14">
-        <v>1685096023.206444</v>
+        <v>1685439560.276618</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.9907584448693435</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>1685096024.221342</v>
+        <v>1685439561.282271</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.003186743148502231</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>1685096025.234174</v>
+        <v>1685439562.287591</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -523,31 +523,31 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>1685096026.235137</v>
+        <v>1685439563.30008</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>0</v>
+        <v>0.5028582692686773</v>
       </c>
       <c r="B18">
-        <v>1685096027.245577</v>
+        <v>1685439564.311547</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0</v>
+        <v>0.00768775872264932</v>
       </c>
       <c r="B19">
-        <v>1685096028.24785</v>
+        <v>1685439565.322506</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.9907584448693435</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>1685096029.249705</v>
+        <v>1685439566.335402</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>1685096030.259858</v>
+        <v>1685439567.350053</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -563,31 +563,31 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>1685096031.275123</v>
+        <v>1685439568.362807</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0</v>
+        <v>0.5164596885472108</v>
       </c>
       <c r="B23">
-        <v>1685096032.281049</v>
+        <v>1685439569.373072</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.1899298916507329</v>
+        <v>0.005716538537354623</v>
       </c>
       <c r="B24">
-        <v>1685096033.284252</v>
+        <v>1685439570.385397</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.2367750159337157</v>
+        <v>0</v>
       </c>
       <c r="B25">
-        <v>1685096034.296388</v>
+        <v>1685439571.401163</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>1685096035.306853</v>
+        <v>1685439572.41695</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -603,31 +603,31 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>1685096036.318504</v>
+        <v>1685439573.431619</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0</v>
+        <v>0.5202050068992707</v>
       </c>
       <c r="B28">
-        <v>1685096037.330387</v>
+        <v>1685439574.444124</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.8193116634799235</v>
+        <v>0.001971220185294698</v>
       </c>
       <c r="B29">
-        <v>1685096038.343272</v>
+        <v>1685439575.445475</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.08094327597195665</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>1685096039.350256</v>
+        <v>1685439576.458817</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -635,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>1685096040.361987</v>
+        <v>1685439577.472193</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -643,39 +643,39 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>1685096041.364825</v>
+        <v>1685439578.476889</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0</v>
+        <v>0.5202050068992707</v>
       </c>
       <c r="B33">
-        <v>1685096042.369952</v>
+        <v>1685439579.490932</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.8753983428935627</v>
+        <v>0.001971220185294698</v>
       </c>
       <c r="B34">
-        <v>1685096043.38446</v>
+        <v>1685439580.504457</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.05289993626513703</v>
+        <v>0</v>
       </c>
       <c r="B35">
-        <v>1685096044.399281</v>
+        <v>1685439581.517476</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.003186743148502231</v>
+        <v>0</v>
       </c>
       <c r="B36">
-        <v>1685096045.401079</v>
+        <v>1685439582.522973</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -683,31 +683,31 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>1685096046.412985</v>
+        <v>1685439583.537019</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0</v>
+        <v>0.5261186674551548</v>
       </c>
       <c r="B38">
-        <v>1685096047.415191</v>
+        <v>1685439584.541622</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>0.9066284257488845</v>
+        <v>0.001971220185294698</v>
       </c>
       <c r="B39">
-        <v>1685096048.423042</v>
+        <v>1685439585.547129</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>0.02804333970681963</v>
+        <v>0</v>
       </c>
       <c r="B40">
-        <v>1685096049.4671</v>
+        <v>1685439586.560231</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>1685096050.472565</v>
+        <v>1685439587.574256</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -723,31 +723,31 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>1685096051.482325</v>
+        <v>1685439588.590387</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>0</v>
+        <v>0.5298639858072146</v>
       </c>
       <c r="B43">
-        <v>1685096052.483066</v>
+        <v>1685439589.597538</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>0.9346717654557042</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>1685096053.498145</v>
+        <v>1685439590.604994</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>0.02166985340981517</v>
+        <v>0</v>
       </c>
       <c r="B45">
-        <v>1685096054.503892</v>
+        <v>1685439591.610029</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>1685096055.519209</v>
+        <v>1685439592.626266</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -763,31 +763,31 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>1685096056.528917</v>
+        <v>1685439593.641793</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>0</v>
+        <v>0.5318352059925093</v>
       </c>
       <c r="B48">
-        <v>1685096057.529826</v>
+        <v>1685439594.652864</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>0.9595283620140216</v>
+        <v>0</v>
       </c>
       <c r="B49">
-        <v>1685096058.542279</v>
+        <v>1685439595.665635</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>0.01561504142766093</v>
+        <v>0</v>
       </c>
       <c r="B50">
-        <v>1685096059.546787</v>
+        <v>1685439596.680926</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>1685096060.556034</v>
+        <v>1685439597.695458</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -803,31 +803,31 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>1685096061.557191</v>
+        <v>1685439598.696473</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>0</v>
+        <v>0.5318352059925093</v>
       </c>
       <c r="B53">
-        <v>1685096062.56814</v>
+        <v>1685439599.70879</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>0.9499681325685149</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>1685096063.582973</v>
+        <v>1685439600.719883</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>0.0124282982791587</v>
+        <v>0</v>
       </c>
       <c r="B55">
-        <v>1685096064.596013</v>
+        <v>1685439601.734518</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>1685096065.598559</v>
+        <v>1685439602.73834</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -843,79 +843,2319 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>1685096066.601841</v>
+        <v>1685439603.752838</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>0</v>
+        <v>0.5318352059925093</v>
       </c>
       <c r="B58">
-        <v>1685096067.612677</v>
+        <v>1685439604.755286</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>0.9719566602931803</v>
+        <v>0</v>
       </c>
       <c r="B59">
-        <v>1685096068.627169</v>
+        <v>1685439605.771444</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>0.9907584448693435</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <v>1685096069.641631</v>
+        <v>1685439606.786448</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B61">
-        <v>1685096070.644101</v>
+        <v>1685439607.795025</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>0.9968132568514978</v>
+        <v>0</v>
       </c>
       <c r="B62">
-        <v>1685096071.648022</v>
+        <v>1685439608.809806</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>0.9968132568514978</v>
+        <v>0.533806426177804</v>
       </c>
       <c r="B63">
-        <v>1685096072.651612</v>
+        <v>1685439609.82437</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>0.9936265137029955</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>1685096073.665308</v>
+        <v>1685439610.841083</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>0.9968132568514978</v>
+        <v>0</v>
       </c>
       <c r="B65">
-        <v>1685096074.678776</v>
+        <v>1685439611.852398</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>0.9936265137029955</v>
+        <v>0</v>
       </c>
       <c r="B66">
-        <v>1685096075.680321</v>
+        <v>1685439612.863278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>1685439613.874125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>0.537551744529864</v>
+      </c>
+      <c r="B68">
+        <v>1685439614.883524</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>1685439615.900014</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>1685439616.910668</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>1685439617.925419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>1685439618.926916</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>0.5355805243445693</v>
+      </c>
+      <c r="B73">
+        <v>1685439619.939251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>1685439620.954214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>1685439621.964291</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>1685439622.98004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>1685439623.989159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>0.5355805243445693</v>
+      </c>
+      <c r="B78">
+        <v>1685439624.991995</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>1685439626.004454</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>1685439627.020911</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>1685439628.021936</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>1685439629.034883</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>0.537551744529864</v>
+      </c>
+      <c r="B83">
+        <v>1685439630.047682</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>1685439631.058696</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>1685439632.072911</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>1685439633.086838</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>0.179183914843288</v>
+      </c>
+      <c r="B87">
+        <v>1685439634.100296</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>0.09639266706091071</v>
+      </c>
+      <c r="B88">
+        <v>1685439635.109862</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>1685439636.126583</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>1685439637.140237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>1685439638.155751</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>0.4451015178395427</v>
+      </c>
+      <c r="B92">
+        <v>1685439639.170579</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>0.02897693672383205</v>
+      </c>
+      <c r="B93">
+        <v>1685439640.184519</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>1685439641.200032</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>1685439642.216266</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>1685439643.230788</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>0.4894539720086734</v>
+      </c>
+      <c r="B97">
+        <v>1685439644.241225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>0.01734673763059334</v>
+      </c>
+      <c r="B98">
+        <v>1685439645.257244</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>1685439646.272656</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>1685439647.28435</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>1685439648.286231</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>0.5068007096392667</v>
+      </c>
+      <c r="B102">
+        <v>1685439649.300944</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>0.009658978907944017</v>
+      </c>
+      <c r="B103">
+        <v>1685439650.310139</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>1685439651.325688</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>1685439652.339942</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>1685439653.352359</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>0.5184309087325055</v>
+      </c>
+      <c r="B107">
+        <v>1685439654.361219</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>0.005716538537354623</v>
+      </c>
+      <c r="B108">
+        <v>1685439655.375301</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>1685439656.386495</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>1685439657.402623</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>1685439658.404964</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>0.5221762270845655</v>
+      </c>
+      <c r="B112">
+        <v>1685439659.410905</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>0.003942440370589395</v>
+      </c>
+      <c r="B113">
+        <v>1685439660.425022</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>1685439661.438554</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>1685439662.440923</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>1685439663.453851</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>0.5261186674551548</v>
+      </c>
+      <c r="B117">
+        <v>1685439664.467998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>0.003942440370589395</v>
+      </c>
+      <c r="B118">
+        <v>1685439665.4771</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>1685439666.490173</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>1685439667.502578</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>1685439668.515384</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>0.5318352059925093</v>
+      </c>
+      <c r="B122">
+        <v>1685439669.530432</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>0.001971220185294698</v>
+      </c>
+      <c r="B123">
+        <v>1685439670.542733</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>1685439671.55527</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>1685439672.570124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>1685439673.573291</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>0.533806426177804</v>
+      </c>
+      <c r="B127">
+        <v>1685439674.585952</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>0.001971220185294698</v>
+      </c>
+      <c r="B128">
+        <v>1685439675.597348</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>1685439676.610073</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>1685439677.626571</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>1685439678.64264</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>0.5355805243445693</v>
+      </c>
+      <c r="B132">
+        <v>1685439679.644611</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>1685439680.656985</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>1685439681.67158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>1685439682.684536</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>1685439683.697684</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>0.5355805243445693</v>
+      </c>
+      <c r="B137">
+        <v>1685439684.714122</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>1685439685.72776</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>1685439686.738262</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>1685439687.754124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>1685439688.764551</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>0.5355805243445693</v>
+      </c>
+      <c r="B142">
+        <v>1685439689.76926</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>1685439690.781737</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>1685439691.7948</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>1685439692.810739</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>1685439693.823206</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>0.5395229647151587</v>
+      </c>
+      <c r="B147">
+        <v>1685439694.838545</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>1685439695.853426</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>1685439696.869626</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>1685439697.883638</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>1685439698.895518</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>0.5414941849004534</v>
+      </c>
+      <c r="B152">
+        <v>1685439699.910914</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>1685439700.923431</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>1685439701.9379</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>1685439702.948826</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>1685439703.962465</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>0.5395229647151587</v>
+      </c>
+      <c r="B157">
+        <v>1685439704.978474</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>1685439705.979986</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>1685439706.995175</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>1685439708.008227</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>1685439709.012462</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>0.5395229647151587</v>
+      </c>
+      <c r="B162">
+        <v>1685439710.021215</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>1685439711.037465</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>1685439712.04933</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>1685439713.064503</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>0.01340429726000394</v>
+      </c>
+      <c r="B166">
+        <v>1685439714.078027</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>0.1060516459688547</v>
+      </c>
+      <c r="B167">
+        <v>1685439715.092507</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>1685439716.106165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>1685439717.108824</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>1685439718.123483</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>0.4123792627636507</v>
+      </c>
+      <c r="B171">
+        <v>1685439719.138893</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>0.0404100137985413</v>
+      </c>
+      <c r="B172">
+        <v>1685439720.152453</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>1685439721.165956</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>1685439722.182066</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>1685439723.195623</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>0.4874827518233787</v>
+      </c>
+      <c r="B176">
+        <v>1685439724.208489</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>0.01734673763059334</v>
+      </c>
+      <c r="B177">
+        <v>1685439725.221963</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>1685439726.232192</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>1685439727.249343</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>1685439728.260889</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181">
+        <v>0.5028582692686773</v>
+      </c>
+      <c r="B181">
+        <v>1685439729.276622</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182">
+        <v>0.01163019909323871</v>
+      </c>
+      <c r="B182">
+        <v>1685439730.289836</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>1685439731.295934</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>1685439732.29702</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>1685439733.308233</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186">
+        <v>0.5125172481766214</v>
+      </c>
+      <c r="B186">
+        <v>1685439734.30981</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187">
+        <v>0.009658978907944017</v>
+      </c>
+      <c r="B187">
+        <v>1685439735.325271</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>1685439736.329554</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>1685439737.339501</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>1685439738.340878</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191">
+        <v>0.5202050068992707</v>
+      </c>
+      <c r="B191">
+        <v>1685439739.34271</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192">
+        <v>0.005716538537354623</v>
+      </c>
+      <c r="B192">
+        <v>1685439740.352545</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>1685439741.35459</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>1685439742.369424</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>1685439743.378654</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196">
+        <v>0.5184309087325055</v>
+      </c>
+      <c r="B196">
+        <v>1685439744.394722</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197">
+        <v>0.003942440370589395</v>
+      </c>
+      <c r="B197">
+        <v>1685439745.410635</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>1685439746.422279</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>1685439747.437638</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>1685439748.450315</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201">
+        <v>0.5298639858072146</v>
+      </c>
+      <c r="B201">
+        <v>1685439749.4621</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202">
+        <v>0.001971220185294698</v>
+      </c>
+      <c r="B202">
+        <v>1685439750.476794</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>1685439751.479817</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>1685439752.493846</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>1685439753.508975</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206">
+        <v>0.5318352059925093</v>
+      </c>
+      <c r="B206">
+        <v>1685439754.595639</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207">
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>1685439755.627318</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>1685439756.630681</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>1685439757.643991</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>1685439758.662278</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211">
+        <v>0.537551744529864</v>
+      </c>
+      <c r="B211">
+        <v>1685439759.673996</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212">
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>1685439760.689033</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>1685439761.705217</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>1685439762.717452</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>1685439763.724213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216">
+        <v>0.533806426177804</v>
+      </c>
+      <c r="B216">
+        <v>1685439764.736948</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217">
+        <v>0</v>
+      </c>
+      <c r="B217">
+        <v>1685439765.746964</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>1685439766.75523</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>1685439767.758162</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>1685439768.772174</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221">
+        <v>0.5355805243445693</v>
+      </c>
+      <c r="B221">
+        <v>1685439769.784641</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222">
+        <v>0</v>
+      </c>
+      <c r="B222">
+        <v>1685439770.799978</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>1685439771.815146</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224">
+        <v>0</v>
+      </c>
+      <c r="B224">
+        <v>1685439772.824495</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225">
+        <v>0</v>
+      </c>
+      <c r="B225">
+        <v>1685439773.825958</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226">
+        <v>0.537551744529864</v>
+      </c>
+      <c r="B226">
+        <v>1685439774.830759</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>1685439775.834394</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228">
+        <v>0</v>
+      </c>
+      <c r="B228">
+        <v>1685439776.83881</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229">
+        <v>0</v>
+      </c>
+      <c r="B229">
+        <v>1685439777.843645</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230">
+        <v>0</v>
+      </c>
+      <c r="B230">
+        <v>1685439778.852365</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231">
+        <v>0.537551744529864</v>
+      </c>
+      <c r="B231">
+        <v>1685439779.856217</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232">
+        <v>0</v>
+      </c>
+      <c r="B232">
+        <v>1685439780.868911</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233">
+        <v>0</v>
+      </c>
+      <c r="B233">
+        <v>1685439781.871937</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234">
+        <v>0</v>
+      </c>
+      <c r="B234">
+        <v>1685439782.888211</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235">
+        <v>0</v>
+      </c>
+      <c r="B235">
+        <v>1685439783.900661</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236">
+        <v>0.5414941849004534</v>
+      </c>
+      <c r="B236">
+        <v>1685439784.905823</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237">
+        <v>0</v>
+      </c>
+      <c r="B237">
+        <v>1685439785.920916</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238">
+        <v>0</v>
+      </c>
+      <c r="B238">
+        <v>1685439786.922865</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239">
+        <v>0</v>
+      </c>
+      <c r="B239">
+        <v>1685439787.92743</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240">
+        <v>0</v>
+      </c>
+      <c r="B240">
+        <v>1685439788.940382</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241">
+        <v>0.5414941849004534</v>
+      </c>
+      <c r="B241">
+        <v>1685439789.951983</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>1685439790.96625</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243">
+        <v>0</v>
+      </c>
+      <c r="B243">
+        <v>1685439791.982252</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>1685439792.997122</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245">
+        <v>0</v>
+      </c>
+      <c r="B245">
+        <v>1685439793.998045</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246">
+        <v>0.5414941849004534</v>
+      </c>
+      <c r="B246">
+        <v>1685439795.01425</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247">
+        <v>0</v>
+      </c>
+      <c r="B247">
+        <v>1685439796.02908</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248">
+        <v>0</v>
+      </c>
+      <c r="B248">
+        <v>1685439797.039004</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249">
+        <v>0</v>
+      </c>
+      <c r="B249">
+        <v>1685439798.048615</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250">
+        <v>0</v>
+      </c>
+      <c r="B250">
+        <v>1685439799.063786</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251">
+        <v>0.5414941849004534</v>
+      </c>
+      <c r="B251">
+        <v>1685439800.069129</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252">
+        <v>0</v>
+      </c>
+      <c r="B252">
+        <v>1685439801.082589</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>1685439802.091791</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254">
+        <v>0</v>
+      </c>
+      <c r="B254">
+        <v>1685439803.104006</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255">
+        <v>0.254287403903016</v>
+      </c>
+      <c r="B255">
+        <v>1685439804.116104</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256">
+        <v>0.05775675142913464</v>
+      </c>
+      <c r="B256">
+        <v>1685439805.13603</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257">
+        <v>0</v>
+      </c>
+      <c r="B257">
+        <v>1685439806.142881</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>1685439807.156085</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259">
+        <v>0</v>
+      </c>
+      <c r="B259">
+        <v>1685439808.166884</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260">
+        <v>0.4567317169327814</v>
+      </c>
+      <c r="B260">
+        <v>1685439809.181404</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261">
+        <v>0.02700571653853736</v>
+      </c>
+      <c r="B261">
+        <v>1685439810.184271</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262">
+        <v>0</v>
+      </c>
+      <c r="B262">
+        <v>1685439811.189837</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263">
+        <v>0</v>
+      </c>
+      <c r="B263">
+        <v>1685439812.197833</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264">
+        <v>0</v>
+      </c>
+      <c r="B264">
+        <v>1685439813.213398</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265">
+        <v>0.4914251921939681</v>
+      </c>
+      <c r="B265">
+        <v>1685439814.216707</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266">
+        <v>0.02503449635324266</v>
+      </c>
+      <c r="B266">
+        <v>1685439815.219487</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267">
+        <v>0</v>
+      </c>
+      <c r="B267">
+        <v>1685439816.232556</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268">
+        <v>0</v>
+      </c>
+      <c r="B268">
+        <v>1685439817.237767</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269">
+        <v>0</v>
+      </c>
+      <c r="B269">
+        <v>1685439818.249623</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270">
+        <v>0.504829489453972</v>
+      </c>
+      <c r="B270">
+        <v>1685439819.265417</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271">
+        <v>0.01163019909323871</v>
+      </c>
+      <c r="B271">
+        <v>1685439820.267716</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272">
+        <v>0</v>
+      </c>
+      <c r="B272">
+        <v>1685439821.270205</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273">
+        <v>0</v>
+      </c>
+      <c r="B273">
+        <v>1685439822.274943</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274">
+        <v>0</v>
+      </c>
+      <c r="B274">
+        <v>1685439823.275977</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275">
+        <v>0.5087719298245614</v>
+      </c>
+      <c r="B275">
+        <v>1685439824.289238</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276">
+        <v>0.009658978907944017</v>
+      </c>
+      <c r="B276">
+        <v>1685439825.303005</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277">
+        <v>0</v>
+      </c>
+      <c r="B277">
+        <v>1685439826.315747</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278">
+        <v>0</v>
+      </c>
+      <c r="B278">
+        <v>1685439827.331004</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279">
+        <v>0</v>
+      </c>
+      <c r="B279">
+        <v>1685439828.345004</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280">
+        <v>0.5202050068992707</v>
+      </c>
+      <c r="B280">
+        <v>1685439829.354055</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281">
+        <v>0.005716538537354623</v>
+      </c>
+      <c r="B281">
+        <v>1685439830.362034</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282">
+        <v>0</v>
+      </c>
+      <c r="B282">
+        <v>1685439831.376787</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283">
+        <v>0</v>
+      </c>
+      <c r="B283">
+        <v>1685439832.378587</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284">
+        <v>0</v>
+      </c>
+      <c r="B284">
+        <v>1685439833.391843</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285">
+        <v>0.5241474472698601</v>
+      </c>
+      <c r="B285">
+        <v>1685439834.406948</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286">
+        <v>0.003942440370589395</v>
+      </c>
+      <c r="B286">
+        <v>1685439835.419537</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287">
+        <v>0</v>
+      </c>
+      <c r="B287">
+        <v>1685439836.434685</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288">
+        <v>0</v>
+      </c>
+      <c r="B288">
+        <v>1685439837.446455</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289">
+        <v>0</v>
+      </c>
+      <c r="B289">
+        <v>1685439838.459263</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290">
+        <v>0.5261186674551548</v>
+      </c>
+      <c r="B290">
+        <v>1685439839.471508</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291">
+        <v>0.001971220185294698</v>
+      </c>
+      <c r="B291">
+        <v>1685439840.485534</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292">
+        <v>0</v>
+      </c>
+      <c r="B292">
+        <v>1685439841.500529</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293">
+        <v>0</v>
+      </c>
+      <c r="B293">
+        <v>1685439842.516076</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294">
+        <v>0</v>
+      </c>
+      <c r="B294">
+        <v>1685439843.529246</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295">
+        <v>0.533806426177804</v>
+      </c>
+      <c r="B295">
+        <v>1685439844.537061</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296">
+        <v>0.001971220185294698</v>
+      </c>
+      <c r="B296">
+        <v>1685439845.554091</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297">
+        <v>0</v>
+      </c>
+      <c r="B297">
+        <v>1685439846.569457</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>1685439847.582637</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299">
+        <v>0</v>
+      </c>
+      <c r="B299">
+        <v>1685439848.594306</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300">
+        <v>0.537551744529864</v>
+      </c>
+      <c r="B300">
+        <v>1685439849.598941</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301">
+        <v>0.3236743544253893</v>
+      </c>
+      <c r="B301">
+        <v>1685439850.61281</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302">
+        <v>0.3256455746106841</v>
+      </c>
+      <c r="B302">
+        <v>1685439851.624748</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303">
+        <v>0.3236743544253893</v>
+      </c>
+      <c r="B303">
+        <v>1685439852.6372</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304">
+        <v>0.3217031342400947</v>
+      </c>
+      <c r="B304">
+        <v>1685439853.640431</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305">
+        <v>0.3236743544253893</v>
+      </c>
+      <c r="B305">
+        <v>1685439854.652073</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306">
+        <v>0.3217031342400947</v>
+      </c>
+      <c r="B306">
+        <v>1685439855.666011</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307">
+        <v>0.3217031342400947</v>
+      </c>
+      <c r="B307">
+        <v>1685439856.677803</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308">
+        <v>0.3236743544253893</v>
+      </c>
+      <c r="B308">
+        <v>1685439857.686913</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309">
+        <v>0.3236743544253893</v>
+      </c>
+      <c r="B309">
+        <v>1685439858.698389</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310">
+        <v>0.3217031342400947</v>
+      </c>
+      <c r="B310">
+        <v>1685439859.712884</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311">
+        <v>0.3236743544253893</v>
+      </c>
+      <c r="B311">
+        <v>1685439860.725648</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312">
+        <v>0.3236743544253893</v>
+      </c>
+      <c r="B312">
+        <v>1685439861.739677</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313">
+        <v>0.3236743544253893</v>
+      </c>
+      <c r="B313">
+        <v>1685439862.751613</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314">
+        <v>0.3217031342400947</v>
+      </c>
+      <c r="B314">
+        <v>1685439863.763488</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315">
+        <v>0.3217031342400947</v>
+      </c>
+      <c r="B315">
+        <v>1685439864.778015</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316">
+        <v>0.3217031342400947</v>
+      </c>
+      <c r="B316">
+        <v>1685439865.793591</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317">
+        <v>0.3236743544253893</v>
+      </c>
+      <c r="B317">
+        <v>1685439866.804397</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318">
+        <v>0.3217031342400947</v>
+      </c>
+      <c r="B318">
+        <v>1685439867.818239</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319">
+        <v>0.3236743544253893</v>
+      </c>
+      <c r="B319">
+        <v>1685439868.83274</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320">
+        <v>0.3217031342400947</v>
+      </c>
+      <c r="B320">
+        <v>1685439869.835588</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321">
+        <v>0.3236743544253893</v>
+      </c>
+      <c r="B321">
+        <v>1685439870.850121</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322">
+        <v>0.3236743544253893</v>
+      </c>
+      <c r="B322">
+        <v>1685439871.863028</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323">
+        <v>0.3217031342400947</v>
+      </c>
+      <c r="B323">
+        <v>1685439872.877233</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324">
+        <v>0.5125172481766214</v>
+      </c>
+      <c r="B324">
+        <v>1685439873.883833</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325">
+        <v>0.339049871870688</v>
+      </c>
+      <c r="B325">
+        <v>1685439874.900623</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326">
+        <v>0.26394638281096</v>
+      </c>
+      <c r="B326">
+        <v>1685439875.913382</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327">
+        <v>0.2698600433668441</v>
+      </c>
+      <c r="B327">
+        <v>1685439876.928152</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328">
+        <v>0.2525133057362507</v>
+      </c>
+      <c r="B328">
+        <v>1685439877.93889</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329">
+        <v>0.1927853341218214</v>
+      </c>
+      <c r="B329">
+        <v>1685439878.949643</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330">
+        <v>0.2369406662724226</v>
+      </c>
+      <c r="B330">
+        <v>1685439879.95102</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331">
+        <v>0.2909520993494974</v>
+      </c>
+      <c r="B331">
+        <v>1685439880.966212</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332">
+        <v>0.8170707668046521</v>
+      </c>
+      <c r="B332">
+        <v>1685439881.978503</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333">
+        <v>0.8941454760496748</v>
+      </c>
+      <c r="B333">
+        <v>1685439882.98035</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334">
+        <v>0.8188448649714173</v>
+      </c>
+      <c r="B334">
+        <v>1685439883.996593</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335">
+        <v>1</v>
+      </c>
+      <c r="B335">
+        <v>1685439885.010451</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336">
+        <v>0.7804060713581707</v>
+      </c>
+      <c r="B336">
+        <v>1685439886.015648</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337">
+        <v>0.042381233983836</v>
+      </c>
+      <c r="B337">
+        <v>1685439887.032112</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338">
+        <v>0.03863591563177607</v>
+      </c>
+      <c r="B338">
+        <v>1685439888.045549</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339">
+        <v>0.9692489651094028</v>
+      </c>
+      <c r="B339">
+        <v>1685439889.057347</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340">
+        <v>0.7090479006505027</v>
+      </c>
+      <c r="B340">
+        <v>1685439890.07021</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341">
+        <v>0.6570076877587226</v>
+      </c>
+      <c r="B341">
+        <v>1685439891.082495</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342">
+        <v>0.4084368223930613</v>
+      </c>
+      <c r="B342">
+        <v>1685439892.097481</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343">
+        <v>0.4740784545633747</v>
+      </c>
+      <c r="B343">
+        <v>1685439893.108767</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344">
+        <v>0.433471318746304</v>
+      </c>
+      <c r="B344">
+        <v>1685439894.12115</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345">
+        <v>0.400749063670412</v>
+      </c>
+      <c r="B345">
+        <v>1685439895.135386</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346">
+        <v>0.4585058150995466</v>
+      </c>
+      <c r="B346">
+        <v>1685439896.147586</v>
       </c>
     </row>
   </sheetData>
@@ -925,7 +3165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -941,402 +3181,1410 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>0.5738379565518219</v>
+        <v>0.2662148737142311</v>
       </c>
       <c r="B2">
-        <v>1685096013.758946</v>
+        <v>1685439549.511192</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>0.356786773222371</v>
+        <v>0.3441994660440245</v>
       </c>
       <c r="B3">
-        <v>1685096014.898565</v>
+        <v>1685439550.794788</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>0.05576341516241457</v>
+        <v>0.2196241970662071</v>
       </c>
       <c r="B4">
-        <v>1685096016.038381</v>
+        <v>1685439552.080008</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>0.01037791946209389</v>
+        <v>0.1923383076678562</v>
       </c>
       <c r="B5">
-        <v>1685096017.174689</v>
+        <v>1685439553.291681</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>0.8341595354116702</v>
+        <v>0.1806324831421205</v>
       </c>
       <c r="B6">
-        <v>1685096019.466309</v>
+        <v>1685439554.488149</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>0.1278897379168863</v>
+        <v>0.2986868452474238</v>
       </c>
       <c r="B7">
-        <v>1685096020.603379</v>
+        <v>1685439555.755184</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>0.02202736809493779</v>
+        <v>0.1811498748025834</v>
       </c>
       <c r="B8">
-        <v>1685096021.743699</v>
+        <v>1685439556.996166</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>0.01291391308120443</v>
+        <v>0.1585299677698676</v>
       </c>
       <c r="B9">
-        <v>1685096022.882906</v>
+        <v>1685439558.197021</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>0.8407787107651965</v>
+        <v>0.1691110629525147</v>
       </c>
       <c r="B10">
-        <v>1685096024.023383</v>
+        <v>1685439559.47927</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>0.2242898550557725</v>
+        <v>0.2248388173149068</v>
       </c>
       <c r="B11">
-        <v>1685096025.166383</v>
+        <v>1685439560.752088</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>0.1221358178981103</v>
+        <v>0.3127038789292257</v>
       </c>
       <c r="B12">
-        <v>1685096026.303721</v>
+        <v>1685439565.524163</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>0.05679573069021955</v>
+        <v>0.3382746284950926</v>
       </c>
       <c r="B13">
-        <v>1685096027.447125</v>
+        <v>1685439570.501201</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>0.3407255589287312</v>
+        <v>0.287715959167193</v>
       </c>
       <c r="B14">
-        <v>1685096028.586862</v>
+        <v>1685439575.547964</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>0.4771777841075567</v>
+        <v>0.2314065174713426</v>
       </c>
       <c r="B15">
-        <v>1685096029.735312</v>
+        <v>1685439580.59266</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>0.07406883785037796</v>
+        <v>0.2876285304284995</v>
       </c>
       <c r="B16">
-        <v>1685096030.879088</v>
+        <v>1685439585.526877</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>0.01487611577922662</v>
+        <v>0.3490430998307942</v>
       </c>
       <c r="B17">
-        <v>1685096032.026991</v>
+        <v>1685439590.465978</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>1</v>
+        <v>0.6601172473449839</v>
       </c>
       <c r="B18">
-        <v>1685096034.306386</v>
+        <v>1685439595.144172</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>0.1532382313152585</v>
+        <v>0.1627909756669594</v>
       </c>
       <c r="B19">
-        <v>1685096035.446678</v>
+        <v>1685439596.446947</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>0.02471589597282728</v>
+        <v>0.6010229687327909</v>
       </c>
       <c r="B20">
-        <v>1685096036.590915</v>
+        <v>1685439600.197022</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>0.7253120476688478</v>
+        <v>0.1572460539864343</v>
       </c>
       <c r="B21">
-        <v>1685096038.86991</v>
+        <v>1685439601.500205</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>0.2831466507080888</v>
+        <v>0.6614538971095244</v>
       </c>
       <c r="B22">
-        <v>1685096040.014999</v>
+        <v>1685439605.149849</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>0.04566532189720397</v>
+        <v>0.1704835099146026</v>
       </c>
       <c r="B23">
-        <v>1685096041.17905</v>
+        <v>1685439606.426273</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>0.0214005742322931</v>
+        <v>0.5320570942232963</v>
       </c>
       <c r="B24">
-        <v>1685096042.318595</v>
+        <v>1685439610.288348</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>0.1109695102637325</v>
+        <v>0.1701035992122395</v>
       </c>
       <c r="B25">
-        <v>1685096043.463472</v>
+        <v>1685439611.560578</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>0.6169718343289736</v>
+        <v>0.5342997402656297</v>
       </c>
       <c r="B26">
-        <v>1685096044.597647</v>
+        <v>1685439615.317761</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>0.09508568614527496</v>
+        <v>0.2035899217090459</v>
       </c>
       <c r="B27">
-        <v>1685096045.734715</v>
+        <v>1685439616.58968</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>0.01650872251519019</v>
+        <v>0.1655649009905566</v>
       </c>
       <c r="B28">
-        <v>1685096046.870555</v>
+        <v>1685439617.845547</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>0.9172719673497348</v>
+        <v>0.1676567787200645</v>
       </c>
       <c r="B29">
-        <v>1685096049.158782</v>
+        <v>1685439619.068724</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>0.1596635390171594</v>
+        <v>0.555199184412033</v>
       </c>
       <c r="B30">
-        <v>1685096050.304636</v>
+        <v>1685439620.328132</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>0.0263698521837861</v>
+        <v>0.245576060089194</v>
       </c>
       <c r="B31">
-        <v>1685096051.442694</v>
+        <v>1685439621.574796</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>0.5423755023038709</v>
+        <v>0.2104881639670057</v>
       </c>
       <c r="B32">
-        <v>1685096053.71405</v>
+        <v>1685439622.815302</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>0.3828445063109002</v>
+        <v>0.2236610685007299</v>
       </c>
       <c r="B33">
-        <v>1685096054.854558</v>
+        <v>1685439624.088834</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>0.0597003471887002</v>
+        <v>0.5416520926101577</v>
       </c>
       <c r="B34">
-        <v>1685096055.994386</v>
+        <v>1685439625.3917</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>0.01112306633429605</v>
+        <v>0.2822481900870658</v>
       </c>
       <c r="B35">
-        <v>1685096057.135266</v>
+        <v>1685439626.673088</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>0.9018223661473094</v>
+        <v>0.2495303912201007</v>
       </c>
       <c r="B36">
-        <v>1685096059.42368</v>
+        <v>1685439627.872979</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>0.1375045168566457</v>
+        <v>0.2502937560731104</v>
       </c>
       <c r="B37">
-        <v>1685096060.583389</v>
+        <v>1685439629.154741</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>0.0284245928735385</v>
+        <v>0.5265183898011689</v>
       </c>
       <c r="B38">
-        <v>1685096061.717918</v>
+        <v>1685439630.437064</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>0.009657935754865185</v>
+        <v>0.293406352847653</v>
       </c>
       <c r="B39">
-        <v>1685096062.858452</v>
+        <v>1685439631.667177</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>0.8189955664598323</v>
+        <v>0.257338133446132</v>
       </c>
       <c r="B40">
-        <v>1685096063.994395</v>
+        <v>1685439632.943724</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>0.2263056181101526</v>
+        <v>0.2454290639685937</v>
       </c>
       <c r="B41">
-        <v>1685096065.131145</v>
+        <v>1685439634.141093</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>0.04092884290362051</v>
+        <v>0.579249898489764</v>
       </c>
       <c r="B42">
-        <v>1685096066.266452</v>
+        <v>1685439635.360091</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>0.009236430665882308</v>
+        <v>0.2823247529538005</v>
       </c>
       <c r="B43">
-        <v>1685096067.398572</v>
+        <v>1685439636.635881</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>0.2865259177097662</v>
+        <v>0.2247638881654185</v>
       </c>
       <c r="B44">
-        <v>1685096068.543674</v>
+        <v>1685439637.867859</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>0.5202655130043288</v>
+        <v>0.2022075308120686</v>
       </c>
       <c r="B45">
-        <v>1685096069.678463</v>
+        <v>1685439639.142044</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>0.08046842041715309</v>
+        <v>0.4709923995403001</v>
       </c>
       <c r="B46">
-        <v>1685096070.819481</v>
+        <v>1685439640.434322</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>0.01700872346784403</v>
+        <v>0.2136075134764708</v>
       </c>
       <c r="B47">
-        <v>1685096071.962642</v>
+        <v>1685439641.715233</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>0.02654359816322956</v>
+        <v>0.3646762827772871</v>
       </c>
       <c r="B48">
-        <v>1685096074.238399</v>
+        <v>1685439645.467135</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>0.04787395182670847</v>
+        <v>0.438738033533297</v>
       </c>
       <c r="B49">
-        <v>1685096075.378623</v>
+        <v>1685439650.38616</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>0.009814570531523415</v>
+        <v>0.1602387664579003</v>
       </c>
       <c r="B50">
-        <v>1685096076.527399</v>
+        <v>1685439651.668776</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>0.01418568880337166</v>
+        <v>0.1704119361396297</v>
       </c>
       <c r="B51">
-        <v>1685096078.803578</v>
+        <v>1685439654.192089</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>0.5017324132974375</v>
+      </c>
+      <c r="B52">
+        <v>1685439655.41195</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>0.2641908362836097</v>
+      </c>
+      <c r="B53">
+        <v>1685439656.67085</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>0.2420380980363241</v>
+      </c>
+      <c r="B54">
+        <v>1685439657.866123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>0.2466039629484642</v>
+      </c>
+      <c r="B55">
+        <v>1685439659.159591</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>0.5559265732415944</v>
+      </c>
+      <c r="B56">
+        <v>1685439660.398266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>0.2920685196149118</v>
+      </c>
+      <c r="B57">
+        <v>1685439661.605392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>0.2411618182959732</v>
+      </c>
+      <c r="B58">
+        <v>1685439662.892371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>0.213274571744084</v>
+      </c>
+      <c r="B59">
+        <v>1685439664.165105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>0.4554142279712594</v>
+      </c>
+      <c r="B60">
+        <v>1685439665.452073</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>0.1908078983095723</v>
+      </c>
+      <c r="B61">
+        <v>1685439666.697377</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>0.2996575236212911</v>
+      </c>
+      <c r="B62">
+        <v>1685439670.505318</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>0.3729630892402315</v>
+      </c>
+      <c r="B63">
+        <v>1685439675.529429</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>0.2264887878679281</v>
+      </c>
+      <c r="B64">
+        <v>1685439676.764892</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>0.2192789291494487</v>
+      </c>
+      <c r="B65">
+        <v>1685439678.038744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>0.232886708118695</v>
+      </c>
+      <c r="B66">
+        <v>1685439679.291564</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>0.4572115791007934</v>
+      </c>
+      <c r="B67">
+        <v>1685439680.507988</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>0.3174042511203415</v>
+      </c>
+      <c r="B68">
+        <v>1685439681.785131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>0.261763318399596</v>
+      </c>
+      <c r="B69">
+        <v>1685439683.073917</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>0.2436027101381332</v>
+      </c>
+      <c r="B70">
+        <v>1685439684.356887</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>0.3928211562803476</v>
+      </c>
+      <c r="B71">
+        <v>1685439685.581797</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>0.244061859033379</v>
+      </c>
+      <c r="B72">
+        <v>1685439686.7702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>0.2039822624347558</v>
+      </c>
+      <c r="B73">
+        <v>1685439688.00561</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>0.1755277685119016</v>
+      </c>
+      <c r="B74">
+        <v>1685439689.248191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>0.3516991742535611</v>
+      </c>
+      <c r="B75">
+        <v>1685439690.533255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>0.2532900698793174</v>
+      </c>
+      <c r="B76">
+        <v>1685439695.556916</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>0.2911772654454021</v>
+      </c>
+      <c r="B77">
+        <v>1685439700.64264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>0.2144125715943118</v>
+      </c>
+      <c r="B78">
+        <v>1685439701.926486</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>0.217261942060607</v>
+      </c>
+      <c r="B79">
+        <v>1685439703.202784</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>0.4681624294118848</v>
+      </c>
+      <c r="B80">
+        <v>1685439704.485759</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>0.377477459322322</v>
+      </c>
+      <c r="B81">
+        <v>1685439705.675175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>0.2668746640437976</v>
+      </c>
+      <c r="B82">
+        <v>1685439706.900706</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>0.2535621151740501</v>
+      </c>
+      <c r="B83">
+        <v>1685439708.119081</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>0.2524754434482326</v>
+      </c>
+      <c r="B84">
+        <v>1685439709.372135</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>0.3551284211595124</v>
+      </c>
+      <c r="B85">
+        <v>1685439710.65698</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>0.2537203271117076</v>
+      </c>
+      <c r="B86">
+        <v>1685439711.893497</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>0.2250602238155598</v>
+      </c>
+      <c r="B87">
+        <v>1685439713.085772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>0.2135869850205956</v>
+      </c>
+      <c r="B88">
+        <v>1685439714.372023</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>0.2966632529324208</v>
+      </c>
+      <c r="B89">
+        <v>1685439715.67111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>0.1893941453152174</v>
+      </c>
+      <c r="B90">
+        <v>1685439716.926879</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>0.1578869790129125</v>
+      </c>
+      <c r="B91">
+        <v>1685439718.224419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>0.3759323643251153</v>
+      </c>
+      <c r="B92">
+        <v>1685439719.476003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>0.2177494948209346</v>
+      </c>
+      <c r="B93">
+        <v>1685439720.755233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>0.1792642886313634</v>
+      </c>
+      <c r="B94">
+        <v>1685439725.690175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>0.2843665999823066</v>
+      </c>
+      <c r="B95">
+        <v>1685439729.469825</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>0.1952409970054527</v>
+      </c>
+      <c r="B96">
+        <v>1685439730.694982</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>0.3424135128375872</v>
+      </c>
+      <c r="B97">
+        <v>1685439734.477387</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>0.3075135176161268</v>
+      </c>
+      <c r="B98">
+        <v>1685439735.601215</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>0.1533247894405564</v>
+      </c>
+      <c r="B99">
+        <v>1685439736.878143</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>0.3838817400799529</v>
+      </c>
+      <c r="B100">
+        <v>1685439739.474495</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>0.2881585103741817</v>
+      </c>
+      <c r="B101">
+        <v>1685439740.70192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>0.191576211920006</v>
+      </c>
+      <c r="B102">
+        <v>1685439741.927591</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>0.1860891725899739</v>
+      </c>
+      <c r="B103">
+        <v>1685439743.129624</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>0.195492673809157</v>
+      </c>
+      <c r="B104">
+        <v>1685439744.349806</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>0.3845394533080262</v>
+      </c>
+      <c r="B105">
+        <v>1685439745.556188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>0.2373491356593191</v>
+      </c>
+      <c r="B106">
+        <v>1685439746.796684</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>0.2214542817432347</v>
+      </c>
+      <c r="B107">
+        <v>1685439748.123015</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>0.2275271582771977</v>
+      </c>
+      <c r="B108">
+        <v>1685439749.37123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>0.4028640358778381</v>
+      </c>
+      <c r="B109">
+        <v>1685439750.575294</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>0.2627256390588776</v>
+      </c>
+      <c r="B110">
+        <v>1685439751.693462</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>0.2427887042744801</v>
+      </c>
+      <c r="B111">
+        <v>1685439752.92704</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>0.3781709590413227</v>
+      </c>
+      <c r="B112">
+        <v>1685439754.198483</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>0.2647135058972234</v>
+      </c>
+      <c r="B113">
+        <v>1685439756.599589</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>0.2505302103278259</v>
+      </c>
+      <c r="B114">
+        <v>1685439757.739914</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>0.2507186891193198</v>
+      </c>
+      <c r="B115">
+        <v>1685439759.097346</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>0.6108976566722601</v>
+      </c>
+      <c r="B116">
+        <v>1685439760.325456</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>0.318650226534048</v>
+      </c>
+      <c r="B117">
+        <v>1685439761.532884</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>0.2473694255544311</v>
+      </c>
+      <c r="B118">
+        <v>1685439762.767311</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>0.2304626298619074</v>
+      </c>
+      <c r="B119">
+        <v>1685439764.039653</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120">
+        <v>0.6983336732977938</v>
+      </c>
+      <c r="B120">
+        <v>1685439765.193691</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121">
+        <v>0.2743633042536701</v>
+      </c>
+      <c r="B121">
+        <v>1685439766.434621</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122">
+        <v>0.1926755346370637</v>
+      </c>
+      <c r="B122">
+        <v>1685439767.666407</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123">
+        <v>0.1571307887718703</v>
+      </c>
+      <c r="B123">
+        <v>1685439769.000043</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124">
+        <v>0.5379086985018764</v>
+      </c>
+      <c r="B124">
+        <v>1685439770.306998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125">
+        <v>0.1633978453413016</v>
+      </c>
+      <c r="B125">
+        <v>1685439771.587217</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126">
+        <v>0.5207073707387313</v>
+      </c>
+      <c r="B126">
+        <v>1685439775.261968</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127">
+        <v>0.84596732552761</v>
+      </c>
+      <c r="B127">
+        <v>1685439780.006137</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128">
+        <v>0.2595875631798474</v>
+      </c>
+      <c r="B128">
+        <v>1685439781.296568</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129">
+        <v>0.1910895131465825</v>
+      </c>
+      <c r="B129">
+        <v>1685439782.539101</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130">
+        <v>0.1969586499528158</v>
+      </c>
+      <c r="B130">
+        <v>1685439783.807767</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131">
+        <v>0.8851123659560318</v>
+      </c>
+      <c r="B131">
+        <v>1685439785.018376</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132">
+        <v>0.3270803365295418</v>
+      </c>
+      <c r="B132">
+        <v>1685439786.164016</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133">
+        <v>0.2518198405901356</v>
+      </c>
+      <c r="B133">
+        <v>1685439787.391313</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134">
+        <v>0.2466434076292516</v>
+      </c>
+      <c r="B134">
+        <v>1685439788.583502</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135">
+        <v>0.9398500802520066</v>
+      </c>
+      <c r="B135">
+        <v>1685439789.757265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136">
+        <v>0.3546024142211673</v>
+      </c>
+      <c r="B136">
+        <v>1685439791.072908</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137">
+        <v>0.2694577224010416</v>
+      </c>
+      <c r="B137">
+        <v>1685439792.247126</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138">
+        <v>0.24090457827699</v>
+      </c>
+      <c r="B138">
+        <v>1685439793.484892</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139">
+        <v>0.8918522078885964</v>
+      </c>
+      <c r="B139">
+        <v>1685439794.729989</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140">
+        <v>0.3128844746094939</v>
+      </c>
+      <c r="B140">
+        <v>1685439796.033072</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141">
+        <v>0.2102807310093006</v>
+      </c>
+      <c r="B141">
+        <v>1685439797.304646</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142">
+        <v>0.1748356221074788</v>
+      </c>
+      <c r="B142">
+        <v>1685439798.64547</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>1685439799.915783</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144">
+        <v>0.2619513416211983</v>
+      </c>
+      <c r="B144">
+        <v>1685439801.245713</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145">
+        <v>0.721407344625472</v>
+      </c>
+      <c r="B145">
+        <v>1685439805.083889</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146">
+        <v>0.1530203174553354</v>
+      </c>
+      <c r="B146">
+        <v>1685439806.338656</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147">
+        <v>0.7191953043026185</v>
+      </c>
+      <c r="B147">
+        <v>1685439810.106473</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148">
+        <v>0.2315202475620601</v>
+      </c>
+      <c r="B148">
+        <v>1685439811.346303</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149">
+        <v>0.1819390038799656</v>
+      </c>
+      <c r="B149">
+        <v>1685439812.512506</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150">
+        <v>0.1980824242958771</v>
+      </c>
+      <c r="B150">
+        <v>1685439813.673553</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151">
+        <v>0.989561570406452</v>
+      </c>
+      <c r="B151">
+        <v>1685439814.944416</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152">
+        <v>0.3574990083893925</v>
+      </c>
+      <c r="B152">
+        <v>1685439816.091984</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153">
+        <v>0.2653418131497773</v>
+      </c>
+      <c r="B153">
+        <v>1685439817.327525</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154">
+        <v>0.2502286686736434</v>
+      </c>
+      <c r="B154">
+        <v>1685439818.458291</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155">
+        <v>0.7848719848150599</v>
+      </c>
+      <c r="B155">
+        <v>1685439819.651221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156">
+        <v>0.3162533699708017</v>
+      </c>
+      <c r="B156">
+        <v>1685439820.894972</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157">
+        <v>0.2285506148249647</v>
+      </c>
+      <c r="B157">
+        <v>1685439822.130203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158">
+        <v>0.1983118106025587</v>
+      </c>
+      <c r="B158">
+        <v>1685439823.295202</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159">
+        <v>0.2701100271966637</v>
+      </c>
+      <c r="B159">
+        <v>1685439824.415718</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160">
+        <v>0.2731648335913833</v>
+      </c>
+      <c r="B160">
+        <v>1685439825.679281</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161">
+        <v>0.3000745362676057</v>
+      </c>
+      <c r="B161">
+        <v>1685439829.471203</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162">
+        <v>0.1599115131739029</v>
+      </c>
+      <c r="B162">
+        <v>1685439830.76015</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163">
+        <v>0.4154377415665518</v>
+      </c>
+      <c r="B163">
+        <v>1685439834.519148</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164">
+        <v>0.2251711828180629</v>
+      </c>
+      <c r="B164">
+        <v>1685439835.768535</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165">
+        <v>0.1640085867479797</v>
+      </c>
+      <c r="B165">
+        <v>1685439837.131673</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166">
+        <v>0.1763638031883525</v>
+      </c>
+      <c r="B166">
+        <v>1685439838.260386</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167">
+        <v>0.5141448162290531</v>
+      </c>
+      <c r="B167">
+        <v>1685439839.52398</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168">
+        <v>0.3003460854636664</v>
+      </c>
+      <c r="B168">
+        <v>1685439840.814014</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169">
+        <v>0.2491747790127563</v>
+      </c>
+      <c r="B169">
+        <v>1685439842.063505</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170">
+        <v>0.2481506257071215</v>
+      </c>
+      <c r="B170">
+        <v>1685439843.333124</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171">
+        <v>0.5852516998146603</v>
+      </c>
+      <c r="B171">
+        <v>1685439844.538796</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172">
+        <v>0.4038021071040739</v>
+      </c>
+      <c r="B172">
+        <v>1685439845.675093</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173">
+        <v>0.2662066299969233</v>
+      </c>
+      <c r="B173">
+        <v>1685439846.954925</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174">
+        <v>0.2306838617289854</v>
+      </c>
+      <c r="B174">
+        <v>1685439848.202114</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175">
+        <v>0.4345358044571135</v>
+      </c>
+      <c r="B175">
+        <v>1685439849.479373</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176">
+        <v>0.3635483853404354</v>
+      </c>
+      <c r="B176">
+        <v>1685439850.61112</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177">
+        <v>0.1828535187858675</v>
+      </c>
+      <c r="B177">
+        <v>1685439851.727397</v>
       </c>
     </row>
   </sheetData>
